--- a/test/01183_100273_(201901-202011)_ResumenErrores.xlsx
+++ b/test/01183_100273_(201901-202011)_ResumenErrores.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,3680 +360,5520 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Periodo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Cod</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Descripcion</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>203</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 12 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>607</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Se detectaron 5635 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>608</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Se detectaron 5635 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>609</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Se detectaron 5626 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>610</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Se detectaron 684 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>615</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>616</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>617</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Se detectaron 695 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>618</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>619</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>620</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>621</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Se detectaron 695 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>622</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>706</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>707</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo enero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>203</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 12 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>607</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Se detectaron 5686 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>608</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Se detectaron 5686 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>609</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Se detectaron 5682 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>610</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Se detectaron 648 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>615</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>616</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>617</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Se detectaron 658 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>618</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>619</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>620</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>621</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Se detectaron 658 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>622</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>706</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>707</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo febrero del 2019.</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>203</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 12 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>607</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Se detectaron 5671 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>608</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Se detectaron 5671 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>609</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Se detectaron 5666 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>610</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Se detectaron 823 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B37">
         <v>615</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B38">
         <v>616</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B39">
         <v>617</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Se detectaron 830 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B40">
         <v>618</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B41">
         <v>619</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B42">
         <v>620</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B43">
         <v>621</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Se detectaron 830 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B44">
         <v>622</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B45">
         <v>706</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>707</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo marzo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B47">
         <v>203</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 12 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B48">
         <v>607</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Se detectaron 5707 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B49">
         <v>608</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Se detectaron 5707 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B50">
         <v>609</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Se detectaron 5704 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B51">
         <v>610</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Se detectaron 656 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B52">
         <v>615</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B53">
         <v>616</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B54">
         <v>617</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Se detectaron 660 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B55">
         <v>618</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B56">
         <v>619</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B57">
         <v>620</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B58">
         <v>621</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Se detectaron 660 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B59">
         <v>622</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B60">
         <v>706</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="B61">
         <v>707</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo abril del 2019.</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B62">
         <v>203</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 12 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B63">
         <v>404</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Se detectaron 1 código(s) de garantía duplicados en el periodo 201905 con un saldo de colocaciones por S/ 0 durante el periodo mayo del 2019</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B64">
         <v>607</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Se detectaron 5683 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B65">
         <v>608</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Se detectaron 5683 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B66">
         <v>609</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Se detectaron 5682 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B67">
         <v>610</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Se detectaron 714 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B68">
         <v>615</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B69">
         <v>616</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B70">
         <v>617</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Se detectaron 719 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B71">
         <v>618</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B72">
         <v>619</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B73">
         <v>620</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B74">
         <v>621</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Se detectaron 719 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B75">
         <v>622</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B76">
         <v>706</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="B77">
         <v>707</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo mayo del 2019.</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B78">
         <v>203</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B79">
         <v>607</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Se detectaron 5683 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B80">
         <v>608</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Se detectaron 5683 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B81">
         <v>609</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Se detectaron 5679 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B82">
         <v>610</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Se detectaron 643 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B83">
         <v>615</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B84">
         <v>616</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B85">
         <v>617</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Se detectaron 647 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B86">
         <v>618</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B87">
         <v>619</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B88">
         <v>620</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B89">
         <v>621</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Se detectaron 647 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B90">
         <v>622</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B91">
         <v>706</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="B92">
         <v>707</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo junio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B93">
         <v>203</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B94">
         <v>607</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Se detectaron 5608 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B95">
         <v>608</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Se detectaron 5608 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B96">
         <v>609</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Se detectaron 5603 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B97">
         <v>610</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Se detectaron 745 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B98">
         <v>615</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B99">
         <v>616</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B100">
         <v>617</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Se detectaron 749 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B101">
         <v>618</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B102">
         <v>619</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B103">
         <v>620</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B104">
         <v>621</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Se detectaron 749 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B105">
         <v>622</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B106">
         <v>706</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="B107">
         <v>707</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo julio del 2019.</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>203</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B109">
         <v>607</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Se detectaron 5630 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B110">
         <v>608</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Se detectaron 5630 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B111">
         <v>609</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Se detectaron 5625 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B112">
         <v>610</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Se detectaron 714 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B113">
         <v>615</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B114">
         <v>616</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B115">
         <v>617</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Se detectaron 723 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B116">
         <v>618</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B117">
         <v>619</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B118">
         <v>620</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B119">
         <v>621</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Se detectaron 723 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B120">
         <v>622</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B121">
         <v>706</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="B122">
         <v>707</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo agosto del 2019.</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B123">
         <v>203</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B124">
         <v>607</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Se detectaron 5639 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B125">
         <v>608</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Se detectaron 5639 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B126">
         <v>609</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Se detectaron 5634 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B127">
         <v>610</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Se detectaron 712 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B128">
         <v>615</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B129">
         <v>616</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B130">
         <v>617</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Se detectaron 715 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B131">
         <v>618</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B132">
         <v>619</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B133">
         <v>620</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B134">
         <v>621</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Se detectaron 715 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B135">
         <v>622</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B136">
         <v>706</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="B137">
         <v>707</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo setiembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B138">
         <v>203</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B139">
         <v>607</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Se detectaron 5642 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B140">
         <v>608</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Se detectaron 5642 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B141">
         <v>609</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Se detectaron 5638 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B142">
         <v>610</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Se detectaron 723 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B143">
         <v>615</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B144">
         <v>616</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B145">
         <v>617</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Se detectaron 736 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B146">
         <v>618</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B147">
         <v>619</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B148">
         <v>620</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B149">
         <v>621</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Se detectaron 736 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B150">
         <v>622</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B151">
         <v>706</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="B152">
         <v>707</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo octubre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B153">
         <v>203</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B154">
         <v>607</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Se detectaron 5601 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B155">
         <v>608</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Se detectaron 5601 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B156">
         <v>609</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Se detectaron 5592 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B157">
         <v>610</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Se detectaron 698 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B158">
         <v>615</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B159">
         <v>616</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B160">
         <v>617</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Se detectaron 707 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B161">
         <v>618</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B162">
         <v>619</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B163">
         <v>620</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B164">
         <v>621</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Se detectaron 707 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B165">
         <v>622</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B166">
         <v>706</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="B167">
         <v>707</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo noviembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B168">
         <v>203</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 6 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B169">
         <v>607</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Se detectaron 5524 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B170">
         <v>608</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Se detectaron 5524 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B171">
         <v>609</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Se detectaron 5522 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B172">
         <v>610</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Se detectaron 809 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B173">
         <v>615</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B174">
         <v>616</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B175">
         <v>617</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Se detectaron 821 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B176">
         <v>618</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B177">
         <v>619</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B178">
         <v>620</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B179">
         <v>621</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Se detectaron 821 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B180">
         <v>622</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B181">
         <v>706</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="B182">
         <v>707</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo diciembre del 2019.</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B183">
         <v>203</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B184">
         <v>404</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Se detectaron 316 código(s) de garantía duplicados en el periodo 202001 con un saldo de colocaciones por S/ 0 durante el periodo enero del 2020</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B185">
         <v>607</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>Se detectaron 5531 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B186">
         <v>608</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Se detectaron 5531 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B187">
         <v>609</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Se detectaron 5527 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B188">
         <v>610</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Se detectaron 688 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B189">
         <v>615</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B190">
         <v>616</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B191">
         <v>617</v>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Se detectaron 691 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B192">
         <v>618</v>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B193">
         <v>619</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B194">
         <v>620</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B195">
         <v>621</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Se detectaron 691 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B196">
         <v>622</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B197">
         <v>706</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="B198">
         <v>707</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo enero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B199">
         <v>203</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B200">
         <v>404</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Se detectaron 341 código(s) de garantía duplicados en el periodo 202002 con un saldo de colocaciones por S/ 0 durante el periodo febrero del 2020</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B201">
         <v>607</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Se detectaron 5613 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B202">
         <v>608</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>Se detectaron 5613 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B203">
         <v>609</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Se detectaron 5606 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B204">
         <v>610</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Se detectaron 667 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B205">
         <v>615</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B206">
         <v>616</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B207">
         <v>617</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Se detectaron 676 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B208">
         <v>618</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B209">
         <v>619</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B210">
         <v>620</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B211">
         <v>621</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Se detectaron 676 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B212">
         <v>622</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B213">
         <v>706</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="B214">
         <v>707</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo febrero del 2020.</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B215">
         <v>203</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B216">
         <v>404</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>Se detectaron 318 código(s) de garantía duplicados en el periodo 202003 con un saldo de colocaciones por S/ 0 durante el periodo marzo del 2020</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B217">
         <v>502</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>Se detectaron 1 cronograma(s) faltantes de acuerdo con la cartera reportada en el periodo 202003, los créditos observados tienen un saldo de colocaciones por S/ NA durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B218">
         <v>607</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>Se detectaron 5568 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B219">
         <v>608</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Se detectaron 5567 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B220">
         <v>609</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Se detectaron 5530 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B221">
         <v>610</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Se detectaron 499 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B222">
         <v>615</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B223">
         <v>616</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B224">
         <v>617</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Se detectaron 511 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B225">
         <v>618</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B226">
         <v>619</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B227">
         <v>620</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B228">
         <v>621</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>Se detectaron 511 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B229">
         <v>622</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B230">
         <v>706</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="B231">
         <v>707</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo marzo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B232">
         <v>203</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B233">
         <v>404</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Se detectaron 317 código(s) de garantía duplicados en el periodo 202004 con un saldo de colocaciones por S/ 0 durante el periodo abril del 2020</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B234">
         <v>607</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>Se detectaron 5368 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B235">
         <v>608</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Se detectaron 5368 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B236">
         <v>609</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Se detectaron 5351 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B237">
         <v>610</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Se detectaron 338 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B238">
         <v>615</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B239">
         <v>616</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B240">
         <v>617</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Se detectaron 347 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B241">
         <v>618</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B242">
         <v>619</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B243">
         <v>620</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B244">
         <v>621</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Se detectaron 347 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B245">
         <v>622</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B246">
         <v>706</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="B247">
         <v>707</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo abril del 2020.</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B248">
         <v>203</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B249">
         <v>404</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>Se detectaron 298 código(s) de garantía duplicados en el periodo 202005 con un saldo de colocaciones por S/ 0 durante el periodo mayo del 2020</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B250">
         <v>607</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>Se detectaron 5166 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B251">
         <v>608</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>Se detectaron 5166 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B252">
         <v>609</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>Se detectaron 5158 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B253">
         <v>610</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>Se detectaron 410 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B254">
         <v>615</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B255">
         <v>616</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B256">
         <v>617</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Se detectaron 417 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B257">
         <v>618</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B258">
         <v>619</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B259">
         <v>620</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B260">
         <v>621</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>Se detectaron 417 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B261">
         <v>622</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B262">
         <v>622</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B263">
         <v>706</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="B264">
         <v>707</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo mayo del 2020.</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B265">
         <v>203</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B266">
         <v>404</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Se detectaron 289 código(s) de garantía duplicados en el periodo 202006 con un saldo de colocaciones por S/ 0 durante el periodo junio del 2020</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B267">
         <v>502</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>Se detectaron 7 cronograma(s) faltantes de acuerdo con la cartera reportada en el periodo 202006, los créditos observados tienen un saldo de colocaciones por S/ NA durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B268">
         <v>607</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Se detectaron 4990 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B269">
         <v>608</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>Se detectaron 4983 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B270">
         <v>609</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>Se detectaron 4977 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B271">
         <v>610</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>Se detectaron 412 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B272">
         <v>615</v>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B273">
         <v>616</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B274">
         <v>617</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Se detectaron 420 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B275">
         <v>618</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B276">
         <v>619</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B277">
         <v>620</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B278">
         <v>621</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>Se detectaron 420 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B279">
         <v>622</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B280">
         <v>622</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B281">
         <v>702</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>Se detectaron 7 crédito(s) con fechas vacías o erróneas en la Fecha de vencimiento general de la operación según cronograma (FVEG) en la BD01 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B282">
         <v>706</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="B283">
         <v>707</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo junio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B284">
         <v>203</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B285">
         <v>404</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>Se detectaron 272 código(s) de garantía duplicados en el periodo 202007 con un saldo de colocaciones por S/ 0 durante el periodo julio del 2020</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B286">
         <v>607</v>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>Se detectaron 4860 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B287">
         <v>608</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>Se detectaron 4860 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B288">
         <v>609</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>Se detectaron 4848 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B289">
         <v>610</v>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>Se detectaron 559 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B290">
         <v>615</v>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B291">
         <v>616</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B292">
         <v>617</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>Se detectaron 568 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B293">
         <v>618</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B294">
         <v>619</v>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="C294" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B295">
         <v>620</v>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B296">
         <v>621</v>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="C296" t="inlineStr">
         <is>
           <t>Se detectaron 568 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B297">
         <v>622</v>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B298">
         <v>622</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="C298" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B299">
         <v>706</v>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="C299" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="B300">
         <v>707</v>
       </c>
-      <c r="B300" t="inlineStr">
+      <c r="C300" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo julio del 2020.</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B301">
         <v>203</v>
       </c>
-      <c r="B301" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B302">
         <v>404</v>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="C302" t="inlineStr">
         <is>
           <t>Se detectaron 270 código(s) de garantía duplicados en el periodo 202008 con un saldo de colocaciones por S/ 0 durante el periodo agosto del 2020</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B303">
         <v>607</v>
       </c>
-      <c r="B303" t="inlineStr">
+      <c r="C303" t="inlineStr">
         <is>
           <t>Se detectaron 4775 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B304">
         <v>608</v>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="C304" t="inlineStr">
         <is>
           <t>Se detectaron 4775 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B305">
         <v>609</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>Se detectaron 4769 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B306">
         <v>610</v>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>Se detectaron 483 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B307">
         <v>615</v>
       </c>
-      <c r="B307" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B308">
         <v>616</v>
       </c>
-      <c r="B308" t="inlineStr">
+      <c r="C308" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B309">
         <v>617</v>
       </c>
-      <c r="B309" t="inlineStr">
+      <c r="C309" t="inlineStr">
         <is>
           <t>Se detectaron 486 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B310">
         <v>618</v>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="C310" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B311">
         <v>619</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B312">
         <v>620</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B313">
         <v>621</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Se detectaron 486 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B314">
         <v>622</v>
       </c>
-      <c r="B314" t="inlineStr">
+      <c r="C314" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B315">
         <v>622</v>
       </c>
-      <c r="B315" t="inlineStr">
+      <c r="C315" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B316">
         <v>706</v>
       </c>
-      <c r="B316" t="inlineStr">
+      <c r="C316" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="B317">
         <v>707</v>
       </c>
-      <c r="B317" t="inlineStr">
+      <c r="C317" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo agosto del 2020.</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B318">
         <v>203</v>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="C318" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B319">
         <v>404</v>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="C319" t="inlineStr">
         <is>
           <t>Se detectaron 248 código(s) de garantía duplicados en el periodo 202009 con un saldo de colocaciones por S/ 0 durante el periodo setiembre del 2020</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B320">
         <v>607</v>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="C320" t="inlineStr">
         <is>
           <t>Se detectaron 4698 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B321">
         <v>608</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Se detectaron 4698 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B322">
         <v>609</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>Se detectaron 4692 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B323">
         <v>610</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Se detectaron 532 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B324">
         <v>615</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B325">
         <v>616</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B326">
         <v>617</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>Se detectaron 536 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B327">
         <v>618</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B328">
         <v>619</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B329">
         <v>620</v>
       </c>
-      <c r="B329" t="inlineStr">
+      <c r="C329" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B330">
         <v>621</v>
       </c>
-      <c r="B330" t="inlineStr">
+      <c r="C330" t="inlineStr">
         <is>
           <t>Se detectaron 536 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B331">
         <v>622</v>
       </c>
-      <c r="B331" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B332">
         <v>622</v>
       </c>
-      <c r="B332" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B333">
         <v>706</v>
       </c>
-      <c r="B333" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="B334">
         <v>707</v>
       </c>
-      <c r="B334" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo setiembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B335">
         <v>203</v>
       </c>
-      <c r="B335" t="inlineStr">
+      <c r="C335" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B336">
         <v>404</v>
       </c>
-      <c r="B336" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>Se detectaron 252 código(s) de garantía duplicados en el periodo 202010 con un saldo de colocaciones por S/ 0 durante el periodo octubre del 2020</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B337">
         <v>607</v>
       </c>
-      <c r="B337" t="inlineStr">
+      <c r="C337" t="inlineStr">
         <is>
           <t>Se detectaron 4697 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B338">
         <v>608</v>
       </c>
-      <c r="B338" t="inlineStr">
+      <c r="C338" t="inlineStr">
         <is>
           <t>Se detectaron 4697 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B339">
         <v>609</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>Se detectaron 4692 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B340">
         <v>610</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>Se detectaron 494 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B341">
         <v>615</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B342">
         <v>616</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B343">
         <v>617</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Se detectaron 498 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B344">
         <v>618</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B345">
         <v>619</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B346">
         <v>620</v>
       </c>
-      <c r="B346" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B347">
         <v>621</v>
       </c>
-      <c r="B347" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>Se detectaron 498 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B348">
         <v>622</v>
       </c>
-      <c r="B348" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B349">
         <v>622</v>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B350">
         <v>706</v>
       </c>
-      <c r="B350" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="B351">
         <v>707</v>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo octubre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B352">
         <v>203</v>
       </c>
-      <c r="B352" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>Se identificaron campos totalmente vacíos en 4 columna(s) correspondiente a la base de datos crediticia BD03A en el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B353">
         <v>404</v>
       </c>
-      <c r="B353" t="inlineStr">
+      <c r="C353" t="inlineStr">
         <is>
           <t>Se detectaron 250 código(s) de garantía duplicados en el periodo 202011 con un saldo de colocaciones por S/ 0 durante el periodo noviembre del 2020</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B354">
         <v>607</v>
       </c>
-      <c r="B354" t="inlineStr">
+      <c r="C354" t="inlineStr">
         <is>
           <t>Se detectaron 4776 crédito(s) con diferentes o vacíos en el Ocupación del socio deudor declarado (OSD) en la BD01 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B355">
         <v>608</v>
       </c>
-      <c r="B355" t="inlineStr">
+      <c r="C355" t="inlineStr">
         <is>
           <t>Se detectaron 4776 crédito(s) con diferentes o vacíos en la Moneda (MON) de la BD02A durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B356">
         <v>609</v>
       </c>
-      <c r="B356" t="inlineStr">
+      <c r="C356" t="inlineStr">
         <is>
           <t>Se detectaron 4772 crédito(s) con diferentes o vacíos en la Forma de cancelación de la cuota (FOCAN) de la BD02A durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B357">
         <v>610</v>
       </c>
-      <c r="B357" t="inlineStr">
+      <c r="C357" t="inlineStr">
         <is>
           <t>Se detectaron 461 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD02B durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B358">
         <v>615</v>
       </c>
-      <c r="B358" t="inlineStr">
+      <c r="C358" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de documento (TID_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B359">
         <v>616</v>
       </c>
-      <c r="B359" t="inlineStr">
+      <c r="C359" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Tipo de crédito (TCR_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B360">
         <v>617</v>
       </c>
-      <c r="B360" t="inlineStr">
+      <c r="C360" t="inlineStr">
         <is>
           <t>Se detectaron 461 crédito(s) con diferentes o vacíos en la Moneda (MON_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B361">
         <v>618</v>
       </c>
-      <c r="B361" t="inlineStr">
+      <c r="C361" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con diferentes o vacíos en la Clasificación del Deudor a la fecha de cancelación del crédito (CAL_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B362">
         <v>619</v>
       </c>
-      <c r="B362" t="inlineStr">
+      <c r="C362" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Esquema de amortización (ESAM_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B363">
         <v>620</v>
       </c>
-      <c r="B363" t="inlineStr">
+      <c r="C363" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con diferentes o vacíos en la Forma de Cancelación del crédito (FOCAN_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B364">
         <v>621</v>
       </c>
-      <c r="B364" t="inlineStr">
+      <c r="C364" t="inlineStr">
         <is>
           <t>Se detectaron 461 crédito(s) con diferentes o vacíos en la Modalidad específica bajo la cual fue otorgado el Crédito(MDCR_C) de la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B365">
         <v>622</v>
       </c>
-      <c r="B365" t="inlineStr">
+      <c r="C365" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B366">
         <v>622</v>
       </c>
-      <c r="B366" t="inlineStr">
+      <c r="C366" t="inlineStr">
         <is>
           <t>Se detectaron 1 crédito(s) con errores en la longitud NID o NID_C en la BD01 y BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B367">
         <v>706</v>
       </c>
-      <c r="B367" t="inlineStr">
+      <c r="C367" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de Desembolso (FOT_C) en la BD04 durante el periodo noviembre del 2020.</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="B368">
         <v>707</v>
       </c>
-      <c r="B368" t="inlineStr">
+      <c r="C368" t="inlineStr">
         <is>
           <t>Se detectaron 2 crédito(s) con fechas vacías o erróneas en la Fecha de cancelación de la operación (FCAN_C) en la BD04 durante el periodo noviembre del 2020.</t>
         </is>
